--- a/biology/Médecine/Diagnostic_présymptomatique/Diagnostic_présymptomatique.xlsx
+++ b/biology/Médecine/Diagnostic_présymptomatique/Diagnostic_présymptomatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diagnostic_pr%C3%A9symptomatique</t>
+          <t>Diagnostic_présymptomatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un diagnostic présymptomatique est un test diagnostic permettant de détecter une maladie génétique, habituellement à transmission autosomique dominante, avant l'apparition des premiers symptômes[1].
-Les principales cibles des diagnostics présymptomatiques sont les maladies neurodégénératives telles que la maladie de Huntington, à la suite de la découverte du gène responsable de la maladie en 1993. Certaines formes d'Alzheimer, Parkinson ou Creutzfeldt-Jakob ainsi que certaines maladies neuromusculaires peuvent également être diagnostiquées[1].
-Dans le cas de la maladie de Parkinson, les recherches s'orientent également vers des biomarqueurs protéomiques, bien que les recherches n'aient pas encore abouti[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un diagnostic présymptomatique est un test diagnostic permettant de détecter une maladie génétique, habituellement à transmission autosomique dominante, avant l'apparition des premiers symptômes.
+Les principales cibles des diagnostics présymptomatiques sont les maladies neurodégénératives telles que la maladie de Huntington, à la suite de la découverte du gène responsable de la maladie en 1993. Certaines formes d'Alzheimer, Parkinson ou Creutzfeldt-Jakob ainsi que certaines maladies neuromusculaires peuvent également être diagnostiquées.
+Dans le cas de la maladie de Parkinson, les recherches s'orientent également vers des biomarqueurs protéomiques, bien que les recherches n'aient pas encore abouti.
 </t>
         </is>
       </c>
